--- a/Group_16.xlsx
+++ b/Group_16.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b49d4b5a6fd0de9f/Documents/GitHub/Airline-Planning-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alec-\Documents\GitHub\Airline-Planning-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{031E5BDD-3571-4846-B3D3-01EFA7F1FE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898FD01A-45D6-436E-A796-0C34E537C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="301">
   <si>
     <t>Flight Number</t>
   </si>
@@ -901,9 +901,6 @@
     <t>TAT</t>
   </si>
   <si>
-    <t>Bus</t>
-  </si>
-  <si>
     <t>NF1000</t>
   </si>
   <si>
@@ -1274,7 +1271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -32639,7 +32638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -32715,7 +32716,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -33459,7 +33460,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -33491,7 +33492,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -33523,7 +33524,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -33555,7 +33556,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -33587,7 +33588,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -33619,7 +33620,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -33651,7 +33652,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -33683,7 +33684,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -33715,7 +33716,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -33747,7 +33748,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -33836,7 +33837,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -33862,7 +33863,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -33888,7 +33889,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -33914,7 +33915,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -33940,7 +33941,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -33966,7 +33967,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -33992,7 +33993,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -34018,7 +34019,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -34044,7 +34045,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -34070,7 +34071,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -34091,6 +34092,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AA7A90D6A9C6744D851BC705B70AE9DE" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2fd3bad4d861c395c61b6c75b5651783">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3edf358e-6b25-4c9c-b2f8-9ff413806a29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba057b4bb61d098d6f1d60a06c83ec6b" ns2:_="">
     <xsd:import namespace="3edf358e-6b25-4c9c-b2f8-9ff413806a29"/>
@@ -34268,12 +34275,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CB5856D-4678-4FB5-BF2B-81394F851A08}">
   <ds:schemaRefs>
@@ -34283,6 +34284,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0EABEB9-96A0-4D54-A144-E6EDBD6CD7DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5852EAA-9DE3-429E-9E0B-81169F92C961}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34298,13 +34308,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0EABEB9-96A0-4D54-A144-E6EDBD6CD7DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>